--- a/TrackedTime_StefanWerner_MTCG.xlsx
+++ b/TrackedTime_StefanWerner_MTCG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FHTechnikum\Semester 3\SWEN\MonsterCardGameOOP\SWEN.MTCG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A55C90-0A5C-4EE4-A4AF-62261F08B820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634DA735-65E9-44AA-972D-9193987A5A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00EB0E6A-83E6-4BE4-AFFD-3E768B11E183}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Es mussten viele Bugs und Fehler behoben werden. Die Datenbank und der TCPServer allein haben zwei Drittel der Bugs verursacht.</t>
+  </si>
+  <si>
+    <t>Trading Klasse</t>
+  </si>
+  <si>
+    <t>Die Trading Klasse wurde schnell in den letzten paar Tagen erstellt was dazu führen könnte das sie nicht exakt ist.</t>
   </si>
 </sst>
 </file>
@@ -436,9 +442,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,6 +476,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -809,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16558F63-8667-4F09-83F3-143CFBDD0056}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G14" sqref="B2:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +835,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" s="4" customFormat="1" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -841,15 +847,15 @@
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="93.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -861,16 +867,16 @@
       <c r="E3" s="7">
         <v>45663</v>
       </c>
-      <c r="F3" s="18">
-        <f>SUM(F4:F14)</f>
-        <v>319</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="17">
+        <f>SUM(F4:F15)</f>
+        <v>331</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -882,15 +888,15 @@
       <c r="E4" s="5">
         <v>45658</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>78</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -902,15 +908,15 @@
       <c r="E5" s="5">
         <v>45654</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>15</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -922,15 +928,15 @@
       <c r="E6" s="5">
         <v>45616</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>10</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -942,15 +948,15 @@
       <c r="E7" s="5">
         <v>45646</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>33</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -962,15 +968,15 @@
       <c r="E8" s="5">
         <v>45563</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>7</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -982,15 +988,15 @@
       <c r="E9" s="5">
         <v>45636</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>24</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1002,15 +1008,15 @@
       <c r="E10" s="5">
         <v>45658</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>56</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1022,15 +1028,15 @@
       <c r="E11" s="5">
         <v>45655</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>28</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1042,15 +1048,15 @@
       <c r="E12" s="5">
         <v>45658</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>18</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1062,34 +1068,54 @@
       <c r="E13" s="5">
         <v>45658</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>5</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16">
+    <row r="14" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45658</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45660</v>
+      </c>
+      <c r="F14" s="18">
+        <v>12</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>45559</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>45658</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F15" s="19">
         <v>45</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
